--- a/docs/Data/am_pm_heights.xlsx
+++ b/docs/Data/am_pm_heights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craigaj\Downloads\Temp data folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craigaj\Documents\GitHub\BYUI_M221_Book_R\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66476AA2-FB2D-4929-BA65-C2102D5DB58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951F968F-DCA4-4792-87CD-1296DAF185A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-8205" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,13 +56,13 @@
     <t>student</t>
   </si>
   <si>
-    <t>am_height</t>
+    <t>comments</t>
   </si>
   <si>
-    <t>pm_height</t>
+    <t>am</t>
   </si>
   <si>
-    <t>comments</t>
+    <t>pm</t>
   </si>
 </sst>
 </file>
@@ -441,7 +441,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -451,13 +451,13 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
